--- a/data/trans_orig/P04D$aparatos-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P04D$aparatos-Habitat-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>480406</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>454753</v>
+        <v>453445</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>503662</v>
+        <v>504876</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6856038483837864</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6489932959331598</v>
+        <v>0.6471265738381429</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7187934812433535</v>
+        <v>0.7205263217140766</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>445</v>
@@ -764,19 +764,19 @@
         <v>481029</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>457168</v>
+        <v>455702</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>506105</v>
+        <v>504451</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6912081520574398</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6569215816359646</v>
+        <v>0.6548146142330764</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7272408571965693</v>
+        <v>0.7248634108263201</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>907</v>
@@ -785,19 +785,19 @@
         <v>961435</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>923807</v>
+        <v>927842</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>996519</v>
+        <v>995316</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.688396410263161</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6614543108284353</v>
+        <v>0.6643437546586609</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7135170612546208</v>
+        <v>0.7126552786081234</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>18121</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>10878</v>
+        <v>10705</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>29160</v>
+        <v>28835</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02586140991194208</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01552444160773134</v>
+        <v>0.01527754502593857</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.04161589833152046</v>
+        <v>0.04115187129841825</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>13</v>
@@ -835,19 +835,19 @@
         <v>14763</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>8121</v>
+        <v>8287</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>24554</v>
+        <v>24510</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02121333325514846</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01167001474192254</v>
+        <v>0.01190729277499154</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.03528278085503161</v>
+        <v>0.03521974587040056</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>30</v>
@@ -856,19 +856,19 @@
         <v>32884</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>22476</v>
+        <v>22116</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>46975</v>
+        <v>46583</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02354532526699434</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01609331142770263</v>
+        <v>0.01583545162102859</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03363442539294295</v>
+        <v>0.03335384799060921</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>177003</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>153988</v>
+        <v>155067</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>202973</v>
+        <v>202747</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2526073190573376</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2197611140648532</v>
+        <v>0.2213017631670377</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.28966918498043</v>
+        <v>0.2893469221351732</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>169</v>
@@ -906,19 +906,19 @@
         <v>176780</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>155207</v>
+        <v>154314</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>201534</v>
+        <v>201115</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.254022033272996</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2230230276339736</v>
+        <v>0.2217391280242191</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2895917788439785</v>
+        <v>0.2889895313780539</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>335</v>
@@ -927,19 +927,19 @@
         <v>353783</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>319827</v>
+        <v>323222</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>386776</v>
+        <v>387733</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2533122553382586</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2289988119162022</v>
+        <v>0.2314300183424639</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2769355205104139</v>
+        <v>0.2776201849495175</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>28462</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>19380</v>
+        <v>19651</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>39487</v>
+        <v>41057</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04061979122972838</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02765721913894266</v>
+        <v>0.02804413281579675</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05635258215342764</v>
+        <v>0.05859350474277795</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>29</v>
@@ -977,19 +977,19 @@
         <v>30881</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>21241</v>
+        <v>20688</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>42849</v>
+        <v>42792</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0443743123563308</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03052222076251105</v>
+        <v>0.02972731982420049</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06157144673957102</v>
+        <v>0.06148992641314476</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>58</v>
@@ -998,19 +998,19 @@
         <v>59344</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>45449</v>
+        <v>46860</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>75243</v>
+        <v>75586</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04249062714155571</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03254180142492828</v>
+        <v>0.03355197866099838</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05387450251933577</v>
+        <v>0.05412023984456656</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>671062</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>638805</v>
+        <v>638384</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>700497</v>
+        <v>703749</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6614292074391578</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.629634802690891</v>
+        <v>0.6292204585210303</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.690441724682725</v>
+        <v>0.6936462984262127</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>640</v>
@@ -1052,19 +1052,19 @@
         <v>703911</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>672249</v>
+        <v>673951</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>736095</v>
+        <v>733711</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6833465047174812</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.652609698724911</v>
+        <v>0.654261803285386</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7145901093528606</v>
+        <v>0.7122756873074829</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1260</v>
@@ -1073,19 +1073,19 @@
         <v>1374973</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1331116</v>
+        <v>1331596</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1416014</v>
+        <v>1419773</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6724710930838327</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6510215120446361</v>
+        <v>0.6512566235303553</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6925436600018705</v>
+        <v>0.6943821996996522</v>
       </c>
     </row>
     <row r="9">
@@ -1102,19 +1102,19 @@
         <v>35805</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>25262</v>
+        <v>23820</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>49507</v>
+        <v>49301</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.03529109496672578</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02489948866164928</v>
+        <v>0.02347847096023343</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.0487961977358464</v>
+        <v>0.04859288180143295</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>32</v>
@@ -1123,19 +1123,19 @@
         <v>35771</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>25343</v>
+        <v>24438</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>50239</v>
+        <v>49988</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.03472621546398653</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.02460266382093975</v>
+        <v>0.02372395086941373</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.04877125274622901</v>
+        <v>0.04852756067071925</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>65</v>
@@ -1144,19 +1144,19 @@
         <v>71576</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>56000</v>
+        <v>56401</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>90440</v>
+        <v>91662</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.03500650992902424</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02738826563871396</v>
+        <v>0.02758447822755335</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.04423219294093306</v>
+        <v>0.04482995098743284</v>
       </c>
     </row>
     <row r="10">
@@ -1173,19 +1173,19 @@
         <v>278368</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>248755</v>
+        <v>248795</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>305448</v>
+        <v>310635</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2743724954811408</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2451844527872614</v>
+        <v>0.2452235210917079</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3010630289219602</v>
+        <v>0.3061755652034635</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>240</v>
@@ -1194,19 +1194,19 @@
         <v>261822</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>233991</v>
+        <v>234937</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>294208</v>
+        <v>292365</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2541732244132601</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2271547570436898</v>
+        <v>0.228073841622167</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2856125875793606</v>
+        <v>0.2838235337328128</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>496</v>
@@ -1215,19 +1215,19 @@
         <v>540191</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>501383</v>
+        <v>495437</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>582510</v>
+        <v>584657</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2641961476219585</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2452164110005594</v>
+        <v>0.2423082336548761</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2848936050224908</v>
+        <v>0.285943806823653</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>30358</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>20656</v>
+        <v>19900</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>45434</v>
+        <v>45046</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02992199030496671</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02035932667917892</v>
+        <v>0.01961421667805624</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.04478221656441934</v>
+        <v>0.0443994168282011</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>29</v>
@@ -1265,19 +1265,19 @@
         <v>31862</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>22445</v>
+        <v>21284</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>46887</v>
+        <v>44552</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.03093100137570794</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02178929790664971</v>
+        <v>0.02066180745619634</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.04551730875519518</v>
+        <v>0.0432504284313741</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>55</v>
@@ -1286,19 +1286,19 @@
         <v>62220</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>46713</v>
+        <v>46150</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>82023</v>
+        <v>78575</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.0304303278392828</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02284650323156755</v>
+        <v>0.02257081965782445</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.04011583752657784</v>
+        <v>0.03842940067340642</v>
       </c>
     </row>
     <row r="12">
@@ -1319,19 +1319,19 @@
         <v>505873</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>477597</v>
+        <v>478102</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>533004</v>
+        <v>531677</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.66854661555676</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.6311773202508594</v>
+        <v>0.6318448096113941</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7044019621654405</v>
+        <v>0.7026486493493858</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>509</v>
@@ -1340,19 +1340,19 @@
         <v>559130</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>532121</v>
+        <v>532315</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>584184</v>
+        <v>580431</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.7203591536150477</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.6855616770327386</v>
+        <v>0.6858120342550558</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7526373266652234</v>
+        <v>0.7478022511936498</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>966</v>
@@ -1361,19 +1361,19 @@
         <v>1065003</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1026736</v>
+        <v>1027680</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1103043</v>
+        <v>1102566</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.6947825414385256</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.6698183847625202</v>
+        <v>0.6704336981455868</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.7195989742538468</v>
+        <v>0.7192876766942735</v>
       </c>
     </row>
     <row r="13">
@@ -1390,19 +1390,19 @@
         <v>6060</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2038</v>
+        <v>2125</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>12225</v>
+        <v>12435</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.008008384123574628</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.002693805298926371</v>
+        <v>0.002808046247930934</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01615565124720537</v>
+        <v>0.01643381033473964</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>5</v>
@@ -1411,19 +1411,19 @@
         <v>4981</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1967</v>
+        <v>1974</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>10992</v>
+        <v>11025</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.006417052934582542</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.002533984330998727</v>
+        <v>0.002543613089817102</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01416221885072037</v>
+        <v>0.01420406905584324</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>11</v>
@@ -1432,19 +1432,19 @@
         <v>11041</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>6031</v>
+        <v>5945</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>20135</v>
+        <v>18330</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.007202593697311963</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.003934479411789444</v>
+        <v>0.003878564311842833</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01313570016017289</v>
+        <v>0.01195827819818087</v>
       </c>
     </row>
     <row r="14">
@@ -1461,19 +1461,19 @@
         <v>188709</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>164214</v>
+        <v>164680</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>213498</v>
+        <v>211368</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2493916607689375</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2170199231588831</v>
+        <v>0.2176360381428825</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2821527896596685</v>
+        <v>0.2793375340671375</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>154</v>
@@ -1482,19 +1482,19 @@
         <v>169919</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>147160</v>
+        <v>149460</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>195516</v>
+        <v>194400</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2189159686252169</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1895943708319109</v>
+        <v>0.1925582202497705</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2518943741956863</v>
+        <v>0.2504561349013122</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>329</v>
@@ -1503,19 +1503,19 @@
         <v>358627</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>324104</v>
+        <v>321734</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>394322</v>
+        <v>392183</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2339599133533085</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2114377376092681</v>
+        <v>0.2098916402430014</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2572465049648348</v>
+        <v>0.2558509512044053</v>
       </c>
     </row>
     <row r="15">
@@ -1532,19 +1532,19 @@
         <v>56034</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>42526</v>
+        <v>42555</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>74483</v>
+        <v>72504</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.07405333955072789</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.05620150405542917</v>
+        <v>0.05623946992918391</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.09843459905036453</v>
+        <v>0.09581934558540187</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>36</v>
@@ -1553,19 +1553,19 @@
         <v>42153</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>29267</v>
+        <v>30909</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>55285</v>
+        <v>58172</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.05430782482515292</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.03770613303360033</v>
+        <v>0.03982151876242407</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.0712267984904594</v>
+        <v>0.07494680702082887</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>86</v>
@@ -1574,19 +1574,19 @@
         <v>98187</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>80195</v>
+        <v>77908</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>121412</v>
+        <v>119899</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.06405495151085398</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.05231721630948494</v>
+        <v>0.050825083723776</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.07920649244325877</v>
+        <v>0.07821929858646673</v>
       </c>
     </row>
     <row r="16">
@@ -1607,19 +1607,19 @@
         <v>505541</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>470833</v>
+        <v>472681</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>535587</v>
+        <v>534600</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5334180398387248</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.496796232283748</v>
+        <v>0.4987456993143005</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5651210942665188</v>
+        <v>0.5640791292191798</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>539</v>
@@ -1628,19 +1628,19 @@
         <v>567979</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>533161</v>
+        <v>534675</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>599395</v>
+        <v>601624</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5399545708992137</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5068544474067097</v>
+        <v>0.5082935636628406</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5698211524279249</v>
+        <v>0.5719395678424956</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1025</v>
@@ -1649,19 +1649,19 @@
         <v>1073520</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1025049</v>
+        <v>1028146</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1117054</v>
+        <v>1118831</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.536856549923389</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5126167920067869</v>
+        <v>0.5141653611779292</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5586277529494661</v>
+        <v>0.559516277544219</v>
       </c>
     </row>
     <row r="17">
@@ -1678,19 +1678,19 @@
         <v>47543</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>35872</v>
+        <v>36040</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>62481</v>
+        <v>62526</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.05016496533295587</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03785001823707758</v>
+        <v>0.0380268612719789</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.06592672566587011</v>
+        <v>0.0659740468792748</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>40</v>
@@ -1699,19 +1699,19 @@
         <v>40061</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>29696</v>
+        <v>28971</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>54537</v>
+        <v>54161</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.03808417252523382</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02823059573846495</v>
+        <v>0.02754130387619535</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.05184652329049535</v>
+        <v>0.05148910060882688</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>88</v>
@@ -1720,19 +1720,19 @@
         <v>87604</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>70534</v>
+        <v>71507</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>108580</v>
+        <v>109024</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.04380992356604897</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03527319553021979</v>
+        <v>0.03576015593829682</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.05429960551793618</v>
+        <v>0.05452180293426914</v>
       </c>
     </row>
     <row r="18">
@@ -1749,19 +1749,19 @@
         <v>372304</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>340661</v>
+        <v>345838</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>407504</v>
+        <v>402501</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3928343577483155</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.359445565186824</v>
+        <v>0.3649088320902465</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4299746049443879</v>
+        <v>0.4246964810122001</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>379</v>
@@ -1770,19 +1770,19 @@
         <v>397366</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>365277</v>
+        <v>366331</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>431824</v>
+        <v>431916</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3777598035049453</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.34725372150953</v>
+        <v>0.3482563041263995</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4105173370619786</v>
+        <v>0.4106051263137447</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>733</v>
@@ -1791,19 +1791,19 @@
         <v>769670</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>725282</v>
+        <v>722994</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>815895</v>
+        <v>813517</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3849044624708395</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3627064333588232</v>
+        <v>0.3615619717320251</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4080211248904302</v>
+        <v>0.4068319127355039</v>
       </c>
     </row>
     <row r="19">
@@ -1820,19 +1820,19 @@
         <v>27261</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>18169</v>
+        <v>18376</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>39060</v>
+        <v>39383</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02876450194379913</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.019171026650498</v>
+        <v>0.0193894911641952</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04121376140344311</v>
+        <v>0.04155425591397369</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>52</v>
@@ -1841,19 +1841,19 @@
         <v>54680</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>42164</v>
+        <v>41493</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>71837</v>
+        <v>69766</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05198167048169375</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04008388599775141</v>
+        <v>0.03944601191871206</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06829227827508794</v>
+        <v>0.06632370651853743</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>78</v>
@@ -1862,19 +1862,19 @@
         <v>81941</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>65402</v>
+        <v>63685</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>100145</v>
+        <v>101485</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04097777950893755</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03270702100490883</v>
+        <v>0.03184813543762256</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05008157148431173</v>
+        <v>0.0507513932442159</v>
       </c>
     </row>
     <row r="20">
@@ -1895,19 +1895,19 @@
         <v>2162883</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2097461</v>
+        <v>2107438</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2215665</v>
+        <v>2222293</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6324802283402595</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6133493868600493</v>
+        <v>0.6162669573543206</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6479150529899986</v>
+        <v>0.6498533083020606</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2133</v>
@@ -1916,19 +1916,19 @@
         <v>2312049</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2252613</v>
+        <v>2254627</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>2373933</v>
+        <v>2369594</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6505296478309722</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6338064808942335</v>
+        <v>0.6343732405299802</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6679417962311314</v>
+        <v>0.6667209065917047</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>4158</v>
@@ -1937,19 +1937,19 @@
         <v>4474931</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>4399473</v>
+        <v>4390104</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>4561124</v>
+        <v>4561686</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6416788868466724</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6308586181760962</v>
+        <v>0.6295151029025172</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6540384128592316</v>
+        <v>0.6541190070536096</v>
       </c>
     </row>
     <row r="21">
@@ -1966,19 +1966,19 @@
         <v>107529</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>88638</v>
+        <v>86022</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>129868</v>
+        <v>127862</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.03144423215307094</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.0259199288011123</v>
+        <v>0.02515502401502953</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.03797670867510351</v>
+        <v>0.03738986369802896</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>90</v>
@@ -1987,19 +1987,19 @@
         <v>95576</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>78300</v>
+        <v>75865</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>118258</v>
+        <v>116791</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.02689166906771153</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.02203091143182783</v>
+        <v>0.02134580356298643</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.03327376803973597</v>
+        <v>0.03286093385893399</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>194</v>
@@ -2008,19 +2008,19 @@
         <v>203105</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>175539</v>
+        <v>175817</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>232443</v>
+        <v>234255</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.02912407591908953</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.02517127709178358</v>
+        <v>0.02521106298712206</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.03333089214003773</v>
+        <v>0.0335907406379239</v>
       </c>
     </row>
     <row r="22">
@@ -2037,19 +2037,19 @@
         <v>1016385</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>965556</v>
+        <v>960460</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1075649</v>
+        <v>1071546</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.297216009332859</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2823524192327619</v>
+        <v>0.2808621320412155</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.314546405534818</v>
+        <v>0.3133464263353175</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>942</v>
@@ -2058,19 +2058,19 @@
         <v>1005887</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>950938</v>
+        <v>950954</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1063115</v>
+        <v>1062778</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2830214643512438</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2675607382729964</v>
+        <v>0.267565226392894</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2991234341391248</v>
+        <v>0.2990286090334428</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1893</v>
@@ -2079,19 +2079,19 @@
         <v>2022272</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1948675</v>
+        <v>1938732</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2099509</v>
+        <v>2101319</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2899819388960241</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2794285575917974</v>
+        <v>0.2780028037711394</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3010572024126567</v>
+        <v>0.3013168379080539</v>
       </c>
     </row>
     <row r="23">
@@ -2108,19 +2108,19 @@
         <v>142116</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>115741</v>
+        <v>120281</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>167726</v>
+        <v>172671</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.04155819744811518</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.03384566356550287</v>
+        <v>0.03517308860647481</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.04904729460277674</v>
+        <v>0.05049322007376019</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>146</v>
@@ -2129,19 +2129,19 @@
         <v>159575</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>132280</v>
+        <v>137340</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>185420</v>
+        <v>187138</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.04489892557857706</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.03721902064283099</v>
+        <v>0.03864264193462147</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.05217069665148352</v>
+        <v>0.05265405878929837</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>277</v>
@@ -2150,19 +2150,19 @@
         <v>301691</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>265704</v>
+        <v>266947</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>336111</v>
+        <v>336786</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.04326075731441438</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.03810043427001802</v>
+        <v>0.03827860488532456</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.04819640019110853</v>
+        <v>0.04829319777385219</v>
       </c>
     </row>
     <row r="24">
@@ -2423,19 +2423,19 @@
         <v>366682</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>343084</v>
+        <v>339066</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>396438</v>
+        <v>391945</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5433939196799381</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5084229585896219</v>
+        <v>0.5024683734079044</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5874889793428938</v>
+        <v>0.5808309459645434</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>372</v>
@@ -2444,19 +2444,19 @@
         <v>374752</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>350852</v>
+        <v>347458</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>401219</v>
+        <v>402291</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5569708965677312</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5214506267240369</v>
+        <v>0.5164058003149243</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5963072145317972</v>
+        <v>0.5979004236118305</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>735</v>
@@ -2465,19 +2465,19 @@
         <v>741434</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>704044</v>
+        <v>703071</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>778115</v>
+        <v>775563</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5501725299301314</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5224279469082728</v>
+        <v>0.5217055062162037</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5773915117149178</v>
+        <v>0.5754976755345816</v>
       </c>
     </row>
     <row r="5">
@@ -2494,19 +2494,19 @@
         <v>8837</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4129</v>
+        <v>3940</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>15766</v>
+        <v>16865</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01309609618547327</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.006119090410547265</v>
+        <v>0.005838331189833543</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02336323805627791</v>
+        <v>0.02499318996654401</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>16</v>
@@ -2515,19 +2515,19 @@
         <v>14768</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>9074</v>
+        <v>8758</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>23308</v>
+        <v>23168</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02194826220871391</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01348664013505947</v>
+        <v>0.01301661609568715</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.03464107293103317</v>
+        <v>0.03443334046175996</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>25</v>
@@ -2536,19 +2536,19 @@
         <v>23605</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>15374</v>
+        <v>15878</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>34319</v>
+        <v>33567</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01751573863146598</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01140796157134836</v>
+        <v>0.01178244885047951</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02546579607131469</v>
+        <v>0.02490806560947648</v>
       </c>
     </row>
     <row r="6">
@@ -2565,19 +2565,19 @@
         <v>176089</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>152159</v>
+        <v>153440</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>199099</v>
+        <v>199278</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2609501866795118</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2254868186786144</v>
+        <v>0.2273861488879209</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2950487512148208</v>
+        <v>0.2953143453840593</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>164</v>
@@ -2586,19 +2586,19 @@
         <v>169391</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>148579</v>
+        <v>146539</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>194465</v>
+        <v>192427</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2517552783506157</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2208247214609582</v>
+        <v>0.2177914791343827</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2890214350450153</v>
+        <v>0.2859925825295235</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>331</v>
@@ -2607,19 +2607,19 @@
         <v>345480</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>313461</v>
+        <v>316244</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>382347</v>
+        <v>381758</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2563594224495246</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2326002766629182</v>
+        <v>0.2346653205885748</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2837165334134724</v>
+        <v>0.2832793370446098</v>
       </c>
     </row>
     <row r="7">
@@ -2636,19 +2636,19 @@
         <v>125393</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>105547</v>
+        <v>103295</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>149444</v>
+        <v>149920</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1858230773512226</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1564129533990357</v>
+        <v>0.1530743012506603</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2214637524148313</v>
+        <v>0.222169294103417</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>115</v>
@@ -2657,19 +2657,19 @@
         <v>115038</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>95837</v>
+        <v>96420</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>134220</v>
+        <v>134266</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.170973874127498</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1424363287922329</v>
+        <v>0.1433024841496439</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1994833959996985</v>
+        <v>0.1995516778293809</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>230</v>
@@ -2678,19 +2678,19 @@
         <v>240431</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>210799</v>
+        <v>214930</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>269793</v>
+        <v>273354</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.178409279566088</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.156421268487151</v>
+        <v>0.1594862403356229</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2001967799852354</v>
+        <v>0.2028393410589536</v>
       </c>
     </row>
     <row r="8">
@@ -2711,19 +2711,19 @@
         <v>578933</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>545218</v>
+        <v>543591</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>612835</v>
+        <v>608989</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5662315813690549</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5332569483401204</v>
+        <v>0.5316654342762416</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5993904522014352</v>
+        <v>0.5956285454632674</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>551</v>
@@ -2732,19 +2732,19 @@
         <v>590411</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>554603</v>
+        <v>558425</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>624176</v>
+        <v>624817</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.566117015183952</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5317826243510303</v>
+        <v>0.535447262541246</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5984929960514573</v>
+        <v>0.5991078297067616</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1092</v>
@@ -2753,19 +2753,19 @@
         <v>1169344</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1122748</v>
+        <v>1122431</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1218090</v>
+        <v>1216573</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5661737302002469</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5436129169798041</v>
+        <v>0.5434596803689355</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5897756215717703</v>
+        <v>0.5890414217303945</v>
       </c>
     </row>
     <row r="9">
@@ -2782,19 +2782,19 @@
         <v>14734</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7751</v>
+        <v>7886</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>24202</v>
+        <v>25149</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.01441038862676265</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.00758077148510341</v>
+        <v>0.007713174008166043</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.023670844349515</v>
+        <v>0.02459739380636694</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>10</v>
@@ -2803,19 +2803,19 @@
         <v>9600</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4815</v>
+        <v>4810</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>17663</v>
+        <v>17545</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.009205296717459949</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.004616804279701607</v>
+        <v>0.004612312623985528</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.01693669417904258</v>
+        <v>0.01682291919140182</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>24</v>
@@ -2824,19 +2824,19 @@
         <v>24334</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>15690</v>
+        <v>16267</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>35567</v>
+        <v>35892</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01178203323170252</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.00759693451446519</v>
+        <v>0.007876323993510126</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.01722100118560024</v>
+        <v>0.01737821213179448</v>
       </c>
     </row>
     <row r="10">
@@ -2853,19 +2853,19 @@
         <v>278706</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>250681</v>
+        <v>249723</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>310431</v>
+        <v>309559</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2725918143995467</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2451809207500863</v>
+        <v>0.2442446029716788</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3036204501490254</v>
+        <v>0.3027672865032035</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>279</v>
@@ -2874,19 +2874,19 @@
         <v>300670</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>272829</v>
+        <v>269831</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>332030</v>
+        <v>330841</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2882980584665481</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2616031605011658</v>
+        <v>0.258727961164796</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3183676482425193</v>
+        <v>0.317228099840604</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>539</v>
@@ -2895,19 +2895,19 @@
         <v>579376</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>534712</v>
+        <v>539491</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>621827</v>
+        <v>622560</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2805228158206464</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2588973325529885</v>
+        <v>0.2612110262278406</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3010765938299456</v>
+        <v>0.3014315866657778</v>
       </c>
     </row>
     <row r="11">
@@ -2924,19 +2924,19 @@
         <v>151077</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>129496</v>
+        <v>128280</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>175855</v>
+        <v>177922</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1477627000747523</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1266552606728801</v>
+        <v>0.1254658160692591</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1719968531981623</v>
+        <v>0.1740185684730172</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>139</v>
@@ -2945,19 +2945,19 @@
         <v>144257</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>121927</v>
+        <v>122590</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>168694</v>
+        <v>167595</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.138321501971419</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1169102733872686</v>
+        <v>0.1175458530634244</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1617523095288561</v>
+        <v>0.1606990946588571</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>276</v>
@@ -2966,19 +2966,19 @@
         <v>295334</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>266881</v>
+        <v>263537</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>330177</v>
+        <v>327696</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1429952868564809</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1292186247621938</v>
+        <v>0.1275995081453603</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1598654972920769</v>
+        <v>0.1586642263036761</v>
       </c>
     </row>
     <row r="12">
@@ -2999,19 +2999,19 @@
         <v>326271</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>301440</v>
+        <v>297200</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>354943</v>
+        <v>353266</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.4295567201259401</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3968657002169203</v>
+        <v>0.3912833979829178</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4673053962312851</v>
+        <v>0.4650984784745389</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>313</v>
@@ -3020,19 +3020,19 @@
         <v>324414</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>297584</v>
+        <v>294834</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>350908</v>
+        <v>353419</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.4132602982120762</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3790827819284039</v>
+        <v>0.3755798402431934</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4470101863325847</v>
+        <v>0.4502084298791193</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>618</v>
@@ -3041,19 +3041,19 @@
         <v>650685</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>610236</v>
+        <v>611412</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>690194</v>
+        <v>694680</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.421274204331083</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3950862291750519</v>
+        <v>0.3958481907285792</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4468540474925856</v>
+        <v>0.4497581099845713</v>
       </c>
     </row>
     <row r="13">
@@ -3070,19 +3070,19 @@
         <v>14363</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7728</v>
+        <v>7425</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>24171</v>
+        <v>24585</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01890939176472482</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01017494450915195</v>
+        <v>0.009775027630294066</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03182240357068847</v>
+        <v>0.03236765573446296</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>15</v>
@@ -3091,19 +3091,19 @@
         <v>16141</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>9149</v>
+        <v>9194</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>26373</v>
+        <v>25458</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02056179154083372</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01165457185035251</v>
+        <v>0.01171215457404677</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03359514836427747</v>
+        <v>0.03243005757968747</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>27</v>
@@ -3112,19 +3112,19 @@
         <v>30504</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>20450</v>
+        <v>20492</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>44807</v>
+        <v>43622</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01974920969024116</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01323997412333052</v>
+        <v>0.01326727516268342</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02900973044901779</v>
+        <v>0.02824218805675024</v>
       </c>
     </row>
     <row r="14">
@@ -3141,19 +3141,19 @@
         <v>263326</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>233871</v>
+        <v>237761</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>289613</v>
+        <v>291371</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3466857513396997</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3079062117875594</v>
+        <v>0.3130275618000297</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3812938780188732</v>
+        <v>0.3836095680926216</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>272</v>
@@ -3162,19 +3162,19 @@
         <v>294747</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>267247</v>
+        <v>265509</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>321335</v>
+        <v>322157</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3754691467305462</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3404376571184464</v>
+        <v>0.3382234649526595</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4093381966108217</v>
+        <v>0.4103858196181698</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>510</v>
@@ -3183,19 +3183,19 @@
         <v>558073</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>519112</v>
+        <v>517278</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>594924</v>
+        <v>598179</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3613146636380177</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3360899292046353</v>
+        <v>0.3349027974730711</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3851729896955887</v>
+        <v>0.3872805972262493</v>
       </c>
     </row>
     <row r="15">
@@ -3212,19 +3212,19 @@
         <v>155593</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>132194</v>
+        <v>133716</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>180118</v>
+        <v>178456</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2048481367696354</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1740425450253868</v>
+        <v>0.1760455638312799</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2371365216564112</v>
+        <v>0.2349484970842255</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>139</v>
@@ -3233,19 +3233,19 @@
         <v>152581</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>132635</v>
+        <v>131060</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>177442</v>
+        <v>179126</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1943679276662212</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1689599494699128</v>
+        <v>0.1669529601922138</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2260380097640294</v>
+        <v>0.2281825387303512</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>280</v>
@@ -3254,19 +3254,19 @@
         <v>308174</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>276580</v>
+        <v>278465</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>339945</v>
+        <v>339494</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.19952166094008</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1790670118041518</v>
+        <v>0.1802874237490005</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2200915162833816</v>
+        <v>0.2197993431359643</v>
       </c>
     </row>
     <row r="16">
@@ -3287,19 +3287,19 @@
         <v>528659</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>498112</v>
+        <v>495856</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>558972</v>
+        <v>560174</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5638622730464444</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5312813651642841</v>
+        <v>0.5288752856127139</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5961946746693794</v>
+        <v>0.5974762933697652</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>523</v>
@@ -3308,19 +3308,19 @@
         <v>564319</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>530773</v>
+        <v>531006</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>599512</v>
+        <v>599713</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5406496503856301</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5085112963085012</v>
+        <v>0.5087340404754077</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5743668819742767</v>
+        <v>0.5745593448548789</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1055</v>
@@ -3329,19 +3329,19 @@
         <v>1092977</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1049295</v>
+        <v>1042912</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1139516</v>
+        <v>1140443</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5516337939124817</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5295869137028121</v>
+        <v>0.5263654820929203</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5751222211093105</v>
+        <v>0.5755899733148121</v>
       </c>
     </row>
     <row r="17">
@@ -3358,19 +3358,19 @@
         <v>57072</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>45069</v>
+        <v>42881</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>73863</v>
+        <v>72251</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.06087253033556393</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04806980292576243</v>
+        <v>0.04573639789967451</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.07878165968151549</v>
+        <v>0.07706265678838026</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>43</v>
@@ -3379,19 +3379,19 @@
         <v>47444</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>33705</v>
+        <v>34127</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>62283</v>
+        <v>64792</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04545413932587342</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03229167260849032</v>
+        <v>0.03269575830271692</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.05967082109008067</v>
+        <v>0.06207437451697625</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>99</v>
@@ -3400,19 +3400,19 @@
         <v>104516</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>84531</v>
+        <v>86039</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>124500</v>
+        <v>125797</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.05275007577727045</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.04266347232385778</v>
+        <v>0.04342449945772459</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.06283618692098854</v>
+        <v>0.06349085996983708</v>
       </c>
     </row>
     <row r="18">
@@ -3429,19 +3429,19 @@
         <v>251226</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>225465</v>
+        <v>225326</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>278317</v>
+        <v>278593</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2679551647555959</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2404791025345138</v>
+        <v>0.2403309241848923</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2968502629581115</v>
+        <v>0.2971444563099934</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>301</v>
@@ -3450,19 +3450,19 @@
         <v>330151</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>298168</v>
+        <v>296974</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>361592</v>
+        <v>362517</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3163031565103368</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2856619927451035</v>
+        <v>0.2845178522205663</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3464260809121401</v>
+        <v>0.3473118329597494</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>552</v>
@@ -3471,19 +3471,19 @@
         <v>581377</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>536791</v>
+        <v>539425</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>624850</v>
+        <v>623167</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2934250316026499</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.270922545883288</v>
+        <v>0.2722519441081096</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3153662699419056</v>
+        <v>0.31451714438217</v>
       </c>
     </row>
     <row r="19">
@@ -3500,19 +3500,19 @@
         <v>101508</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>81619</v>
+        <v>82625</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>121949</v>
+        <v>122966</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1082671443297914</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.08705383131632952</v>
+        <v>0.08812695028780136</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1300696904351026</v>
+        <v>0.1311547634812261</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>93</v>
@@ -3521,19 +3521,19 @@
         <v>102918</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>83507</v>
+        <v>83500</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>125415</v>
+        <v>124558</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.09860146957238716</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.08000451597130893</v>
+        <v>0.07999743308460787</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1201550103983706</v>
+        <v>0.1193341469794605</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>187</v>
@@ -3542,19 +3542,19 @@
         <v>204426</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>179262</v>
+        <v>178842</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>233303</v>
+        <v>235713</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1031752379212098</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.09047488864728334</v>
+        <v>0.09026289804810157</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1177495066284366</v>
+        <v>0.1189662621531502</v>
       </c>
     </row>
     <row r="20">
@@ -3575,19 +3575,19 @@
         <v>1800544</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1743212</v>
+        <v>1737899</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1859688</v>
+        <v>1856203</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5304533200093672</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5135629425466633</v>
+        <v>0.5119977106528035</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5478775047510674</v>
+        <v>0.5468507161135466</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1759</v>
@@ -3596,19 +3596,19 @@
         <v>1853895</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1796897</v>
+        <v>1792466</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1911900</v>
+        <v>1914463</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5230281279618629</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5069475991328501</v>
+        <v>0.5056975642318083</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5393925398779188</v>
+        <v>0.5401158489672195</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>3500</v>
@@ -3617,19 +3617,19 @@
         <v>3654439</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>3573105</v>
+        <v>3567190</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>3738722</v>
+        <v>3739859</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5266603652025651</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5149388689738688</v>
+        <v>0.5140863489528112</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5388067026155419</v>
+        <v>0.5389706972380044</v>
       </c>
     </row>
     <row r="21">
@@ -3646,19 +3646,19 @@
         <v>95006</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>78472</v>
+        <v>77829</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>118128</v>
+        <v>116820</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.02798933878433816</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.02311846522341529</v>
+        <v>0.02292903123459043</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.03480126139815361</v>
+        <v>0.03441595435657473</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>84</v>
@@ -3667,19 +3667,19 @@
         <v>87953</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>70986</v>
+        <v>68642</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>108050</v>
+        <v>109014</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.024813721769945</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.02002681159401866</v>
+        <v>0.01936549372209201</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.03048360789579132</v>
+        <v>0.0307555107457878</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>175</v>
@@ -3688,19 +3688,19 @@
         <v>182959</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>157999</v>
+        <v>159128</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>210790</v>
+        <v>212588</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.02636716231506373</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.02277001817482422</v>
+        <v>0.02293270302368387</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.03037811011342038</v>
+        <v>0.03063721549268442</v>
       </c>
     </row>
     <row r="22">
@@ -3717,19 +3717,19 @@
         <v>969347</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>919208</v>
+        <v>917245</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1022530</v>
+        <v>1027367</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2855767101037021</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2708054049382126</v>
+        <v>0.2702270509958374</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3012445716317744</v>
+        <v>0.3026697184635918</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1016</v>
@@ -3738,19 +3738,19 @@
         <v>1094959</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1039959</v>
+        <v>1032907</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1151308</v>
+        <v>1149829</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3089139769969997</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2933972863561582</v>
+        <v>0.2914078286244895</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3248115886970461</v>
+        <v>0.3243941583316483</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1932</v>
@@ -3759,19 +3759,19 @@
         <v>2064306</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1989578</v>
+        <v>1987303</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2145233</v>
+        <v>2146995</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2974979099964791</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.286728431189394</v>
+        <v>0.2864005948393025</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3091607415808596</v>
+        <v>0.3094146639365757</v>
       </c>
     </row>
     <row r="23">
@@ -3788,19 +3788,19 @@
         <v>533571</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>488021</v>
+        <v>492647</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>582663</v>
+        <v>578845</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1571938985939024</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1437744804225518</v>
+        <v>0.1451373952279078</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1716566963735141</v>
+        <v>0.1705318568377573</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>486</v>
@@ -3809,19 +3809,19 @@
         <v>514794</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>474258</v>
+        <v>472754</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>559323</v>
+        <v>554661</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1452357703090898</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1337995162809068</v>
+        <v>0.1333751842801375</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1577984943530133</v>
+        <v>0.1564832178878363</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>973</v>
@@ -3830,19 +3830,19 @@
         <v>1048365</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>989118</v>
+        <v>986310</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1114903</v>
+        <v>1109008</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1510854181844992</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.142546954119912</v>
+        <v>0.1421422505780028</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.160674452504115</v>
+        <v>0.1598248832254253</v>
       </c>
     </row>
     <row r="24">
@@ -4103,19 +4103,19 @@
         <v>514473</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>485267</v>
+        <v>489007</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>536993</v>
+        <v>539247</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.7471924548118531</v>
+        <v>0.747192454811853</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7047744291191282</v>
+        <v>0.7102070244791858</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7798991562755284</v>
+        <v>0.7831717826290806</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>938</v>
@@ -4124,19 +4124,19 @@
         <v>534808</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>513850</v>
+        <v>511041</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>554309</v>
+        <v>552981</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7291077918754947</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7005364206793906</v>
+        <v>0.6967063575908902</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7556942615860067</v>
+        <v>0.753883264505946</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1494</v>
@@ -4145,19 +4145,19 @@
         <v>1049281</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1016007</v>
+        <v>1014106</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1081717</v>
+        <v>1083139</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.7378641863154749</v>
+        <v>0.737864186315475</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7144657414393994</v>
+        <v>0.7131288461661964</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7606734134422187</v>
+        <v>0.7616735637445162</v>
       </c>
     </row>
     <row r="5">
@@ -4174,19 +4174,19 @@
         <v>33881</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>24726</v>
+        <v>23556</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>45220</v>
+        <v>44362</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.04920701321628079</v>
+        <v>0.0492070132162808</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03591102881111147</v>
+        <v>0.03421177243152752</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.06567450337172358</v>
+        <v>0.0644288670654124</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>67</v>
@@ -4195,19 +4195,19 @@
         <v>41698</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>32241</v>
+        <v>32507</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>52233</v>
+        <v>54144</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.05684690365233307</v>
+        <v>0.05684690365233306</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04395465116884075</v>
+        <v>0.04431716596495541</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.07121027596528516</v>
+        <v>0.0738143785044693</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>112</v>
@@ -4216,19 +4216,19 @@
         <v>75579</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>62005</v>
+        <v>62625</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>91322</v>
+        <v>91002</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.05314775292048227</v>
+        <v>0.05314775292048228</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04360266523483746</v>
+        <v>0.0440385486986354</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.06421867928214316</v>
+        <v>0.0639935958867227</v>
       </c>
     </row>
     <row r="6">
@@ -4245,19 +4245,19 @@
         <v>107877</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>86190</v>
+        <v>84848</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>134423</v>
+        <v>135207</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1566750695626395</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1251782238238108</v>
+        <v>0.1232285637080019</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1952285220084349</v>
+        <v>0.1963668678700937</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>173</v>
@@ -4266,19 +4266,19 @@
         <v>114561</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>97868</v>
+        <v>98201</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>132161</v>
+        <v>132656</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1561816801830067</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1334239705774126</v>
+        <v>0.1338776004709495</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1801767788468253</v>
+        <v>0.1808512112873847</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>270</v>
@@ -4287,19 +4287,19 @@
         <v>222438</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>195462</v>
+        <v>194980</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>252441</v>
+        <v>253700</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1564205738818147</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1374506456967274</v>
+        <v>0.1371115313978719</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1775191469192476</v>
+        <v>0.1784045156350215</v>
       </c>
     </row>
     <row r="7">
@@ -4316,19 +4316,19 @@
         <v>32310</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>22474</v>
+        <v>22240</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>47055</v>
+        <v>45079</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04692546240922647</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03264035885212829</v>
+        <v>0.03230072442654263</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06834009534585862</v>
+        <v>0.06547030633786589</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>62</v>
@@ -4337,19 +4337,19 @@
         <v>42444</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>32131</v>
+        <v>31968</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>52800</v>
+        <v>55116</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05786362428916533</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04380402241855023</v>
+        <v>0.04358164407070302</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07198272737965504</v>
+        <v>0.07514042640184981</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>92</v>
@@ -4358,19 +4358,19 @@
         <v>74754</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>59553</v>
+        <v>60463</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>90729</v>
+        <v>92802</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.05256748688222811</v>
+        <v>0.05256748688222812</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04187803027492362</v>
+        <v>0.04251848056396195</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06380150292889515</v>
+        <v>0.06525942932640386</v>
       </c>
     </row>
     <row r="8">
@@ -4391,19 +4391,19 @@
         <v>676812</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>641164</v>
+        <v>642106</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>713666</v>
+        <v>714921</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6459591494227798</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6119364828249004</v>
+        <v>0.6128350360667753</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6811326228287959</v>
+        <v>0.6823304511406021</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1064</v>
@@ -4412,19 +4412,19 @@
         <v>742138</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>715733</v>
+        <v>713847</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>768747</v>
+        <v>768566</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6948938877840991</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6701694113236843</v>
+        <v>0.6684037214614358</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7198087829854334</v>
+        <v>0.7196391506912382</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1713</v>
@@ -4433,19 +4433,19 @@
         <v>1418950</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1376192</v>
+        <v>1370517</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1462350</v>
+        <v>1463566</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6706604092238519</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6504507211646341</v>
+        <v>0.6477686120054194</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6911727899046634</v>
+        <v>0.6917479333142994</v>
       </c>
     </row>
     <row r="9">
@@ -4462,19 +4462,19 @@
         <v>54593</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>42184</v>
+        <v>41386</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>69978</v>
+        <v>71505</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.05210406652533264</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.04026099756680052</v>
+        <v>0.03949951361824791</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.06678795825913585</v>
+        <v>0.06824499379845608</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>95</v>
@@ -4483,19 +4483,19 @@
         <v>67717</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>54925</v>
+        <v>55109</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>82227</v>
+        <v>83103</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.06340627956893653</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.05142869625255757</v>
+        <v>0.05160032689052531</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.07699268556177269</v>
+        <v>0.07781222630558442</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>152</v>
@@ -4504,19 +4504,19 @@
         <v>122310</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>102306</v>
+        <v>103222</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>141979</v>
+        <v>146067</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.05780919360000409</v>
+        <v>0.0578091936000041</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.04835460357818245</v>
+        <v>0.04878758201329569</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.06710572461712738</v>
+        <v>0.0690377564461343</v>
       </c>
     </row>
     <row r="10">
@@ -4533,19 +4533,19 @@
         <v>207444</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>177024</v>
+        <v>178422</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>238131</v>
+        <v>242534</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1979874237897442</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.168954286935228</v>
+        <v>0.1702882991941121</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2272760965017233</v>
+        <v>0.2314782344492474</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>223</v>
@@ -4554,19 +4554,19 @@
         <v>160870</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>140027</v>
+        <v>140816</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>186717</v>
+        <v>182417</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1506291034326085</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1311125185741321</v>
+        <v>0.1318516340042585</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1748307955443831</v>
+        <v>0.1708047130249351</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>394</v>
@@ -4575,19 +4575,19 @@
         <v>368314</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>331869</v>
+        <v>331759</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>403896</v>
+        <v>409728</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1740819077073553</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1568562184341193</v>
+        <v>0.1568042801659355</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1908995858264931</v>
+        <v>0.1936562130291525</v>
       </c>
     </row>
     <row r="11">
@@ -4604,19 +4604,19 @@
         <v>108914</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>84991</v>
+        <v>88811</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>131598</v>
+        <v>135306</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1039493602621433</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.08111669376042559</v>
+        <v>0.08476271623857461</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1255993893437615</v>
+        <v>0.1291379722984572</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>132</v>
@@ -4625,19 +4625,19 @@
         <v>97262</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>81220</v>
+        <v>81214</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>116286</v>
+        <v>116201</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.09107072921435591</v>
+        <v>0.09107072921435592</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.07604940901268849</v>
+        <v>0.07604361023033433</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1088828571985381</v>
+        <v>0.1088032762214144</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>218</v>
@@ -4646,19 +4646,19 @@
         <v>206177</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>177534</v>
+        <v>180281</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>237639</v>
+        <v>243947</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.0974484894687887</v>
+        <v>0.09744848946878872</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.08391073963687533</v>
+        <v>0.08520918984747664</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1123188519813396</v>
+        <v>0.1153003429588964</v>
       </c>
     </row>
     <row r="12">
@@ -4679,19 +4679,19 @@
         <v>501185</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>469174</v>
+        <v>465551</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>531366</v>
+        <v>529333</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.628244181807424</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5881177428327954</v>
+        <v>0.5835768664007759</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6660761916761342</v>
+        <v>0.6635285735574382</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>651</v>
@@ -4700,19 +4700,19 @@
         <v>511529</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>483441</v>
+        <v>485149</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>537003</v>
+        <v>535986</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.6313984284302815</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.5967275526626038</v>
+        <v>0.5988360020918903</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6628412460989124</v>
+        <v>0.6615865661557752</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1063</v>
@@ -4721,19 +4721,19 @@
         <v>1012715</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>972706</v>
+        <v>966347</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1057387</v>
+        <v>1046918</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.6298334656346117</v>
+        <v>0.6298334656346116</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.6049506715401826</v>
+        <v>0.6009958913169658</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.6576160427255756</v>
+        <v>0.6511053726768696</v>
       </c>
     </row>
     <row r="13">
@@ -4750,19 +4750,19 @@
         <v>40209</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>27807</v>
+        <v>28582</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>57805</v>
+        <v>57283</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05040261100957479</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03485705750740246</v>
+        <v>0.03582773574458478</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07245973609727736</v>
+        <v>0.07180575383793855</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>36</v>
@@ -4771,19 +4771,19 @@
         <v>28282</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>20086</v>
+        <v>19451</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>41020</v>
+        <v>40573</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.03490908541175027</v>
+        <v>0.03490908541175028</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02479282125681427</v>
+        <v>0.02400938651086772</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05063223878613985</v>
+        <v>0.05008015086350228</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>70</v>
@@ -4792,19 +4792,19 @@
         <v>68491</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>51314</v>
+        <v>51810</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>87903</v>
+        <v>88387</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04259611627314455</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03191368591991725</v>
+        <v>0.03222208022529305</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05466897872857557</v>
+        <v>0.05496986553619751</v>
       </c>
     </row>
     <row r="14">
@@ -4821,19 +4821,19 @@
         <v>80869</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>63941</v>
+        <v>65285</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>101047</v>
+        <v>102125</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1013705313828699</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.08015126222286445</v>
+        <v>0.08183584568244866</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1266643522895472</v>
+        <v>0.1280156055252277</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>103</v>
@@ -4842,19 +4842,19 @@
         <v>76152</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>61635</v>
+        <v>63543</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>92515</v>
+        <v>94352</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.09399695557252791</v>
+        <v>0.09399695557252792</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.0760786502357552</v>
+        <v>0.07843310309763402</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1141941744436508</v>
+        <v>0.116462188652384</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>179</v>
@@ -4863,19 +4863,19 @@
         <v>157021</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>135517</v>
+        <v>135158</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>184199</v>
+        <v>180748</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.09765531625067389</v>
+        <v>0.09765531625067388</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.084281446943396</v>
+        <v>0.08405802578887332</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1145582146330095</v>
+        <v>0.112412048346729</v>
       </c>
     </row>
     <row r="15">
@@ -4892,19 +4892,19 @@
         <v>175492</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>151474</v>
+        <v>150846</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>204619</v>
+        <v>203096</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2199826758001312</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1898758234830845</v>
+        <v>0.1890876878097883</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2564938786499574</v>
+        <v>0.2545843037569176</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>254</v>
@@ -4913,19 +4913,19 @@
         <v>194190</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>172069</v>
+        <v>172566</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>218441</v>
+        <v>219212</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2396955305854402</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2123911955849657</v>
+        <v>0.2130040781884478</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2696293201574071</v>
+        <v>0.2705812280063984</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>405</v>
@@ -4934,19 +4934,19 @@
         <v>369683</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>334073</v>
+        <v>337242</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>403411</v>
+        <v>409802</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2299151018415699</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2077688002985647</v>
+        <v>0.2097395126478743</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2508919572920056</v>
+        <v>0.2548666312691523</v>
       </c>
     </row>
     <row r="16">
@@ -4967,19 +4967,19 @@
         <v>559963</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>524576</v>
+        <v>522558</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>591460</v>
+        <v>593073</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5668093547461662</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5309901082298044</v>
+        <v>0.5289467735870174</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5986920472570526</v>
+        <v>0.6003241153691733</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>896</v>
@@ -4988,19 +4988,19 @@
         <v>634723</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>604928</v>
+        <v>604470</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>664479</v>
+        <v>663881</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.5687528781298345</v>
+        <v>0.5687528781298347</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5420541401594032</v>
+        <v>0.5416443228430291</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5954160154082299</v>
+        <v>0.5948799702776146</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1481</v>
@@ -5009,19 +5009,19 @@
         <v>1194686</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1153673</v>
+        <v>1150965</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1239084</v>
+        <v>1239153</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.567840269876698</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.54834639421348</v>
+        <v>0.5470594750634024</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5889426876205226</v>
+        <v>0.5889757715563065</v>
       </c>
     </row>
     <row r="17">
@@ -5038,19 +5038,19 @@
         <v>78397</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>60621</v>
+        <v>62835</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>97951</v>
+        <v>100213</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.07935531454213286</v>
+        <v>0.07935531454213285</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06136184798189393</v>
+        <v>0.06360366647538616</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.09914832223652319</v>
+        <v>0.1014382108475457</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>134</v>
@@ -5059,19 +5059,19 @@
         <v>90592</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>75894</v>
+        <v>75716</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>107866</v>
+        <v>108475</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.08117645237775853</v>
+        <v>0.08117645237775854</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.06800628290095032</v>
+        <v>0.06784600971369843</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.09665463749158347</v>
+        <v>0.09720045653485256</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>222</v>
@@ -5080,19 +5080,19 @@
         <v>168989</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>146793</v>
+        <v>146778</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>194533</v>
+        <v>195166</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.08032131194937091</v>
+        <v>0.08032131194937092</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.06977157691320297</v>
+        <v>0.06976437105978003</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.09246252659405667</v>
+        <v>0.09276324679179233</v>
       </c>
     </row>
     <row r="18">
@@ -5109,19 +5109,19 @@
         <v>232001</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>205640</v>
+        <v>206184</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>261174</v>
+        <v>262464</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.2348374255859903</v>
+        <v>0.2348374255859902</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2081540447752586</v>
+        <v>0.2087048678881282</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2643672168853636</v>
+        <v>0.2656730488688739</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>363</v>
@@ -5130,19 +5130,19 @@
         <v>268443</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>241830</v>
+        <v>242383</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>294815</v>
+        <v>293235</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.2405421095473631</v>
+        <v>0.2405421095473632</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2166954440159198</v>
+        <v>0.217190693202822</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2641728948255947</v>
+        <v>0.2627579121289166</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>592</v>
@@ -5151,19 +5151,19 @@
         <v>500444</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>461597</v>
+        <v>460834</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>539305</v>
+        <v>539413</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2378633963873193</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2193994434936651</v>
+        <v>0.2190367969696498</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2563343561862952</v>
+        <v>0.2563855741807292</v>
       </c>
     </row>
     <row r="19">
@@ -5180,19 +5180,19 @@
         <v>117561</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>95630</v>
+        <v>96185</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>141911</v>
+        <v>142796</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1189979051257107</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.09679954911165407</v>
+        <v>0.09736152407253713</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1436465267152309</v>
+        <v>0.1445424228499541</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>164</v>
@@ -5201,19 +5201,19 @@
         <v>122233</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>105260</v>
+        <v>105035</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>142565</v>
+        <v>142615</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.1095285599450436</v>
+        <v>0.1095285599450437</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.09431954844702688</v>
+        <v>0.09411822509142745</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1277478832944055</v>
+        <v>0.1277925609046748</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>266</v>
@@ -5222,19 +5222,19 @@
         <v>239793</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>213140</v>
+        <v>211527</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>269390</v>
+        <v>271007</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1139750217866119</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1013063645832359</v>
+        <v>0.1005399844929285</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1280422253173811</v>
+        <v>0.1288112132158246</v>
       </c>
     </row>
     <row r="20">
@@ -5255,19 +5255,19 @@
         <v>2252433</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2184949</v>
+        <v>2188388</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2313506</v>
+        <v>2313496</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.639535895173044</v>
+        <v>0.6395358951730439</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6203749423489878</v>
+        <v>0.6213513957312661</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6568764456402475</v>
+        <v>0.6568735835222312</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>3549</v>
@@ -5276,19 +5276,19 @@
         <v>2423199</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2372599</v>
+        <v>2370551</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>2474171</v>
+        <v>2473728</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6500620497569312</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6364878406813426</v>
+        <v>0.6359383427220725</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6637361293629623</v>
+        <v>0.6636171567885694</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>5751</v>
@@ -5297,19 +5297,19 @@
         <v>4675633</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>4583776</v>
+        <v>4593037</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>4764648</v>
+        <v>4764516</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.6449482783181421</v>
+        <v>0.6449482783181419</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6322777692923882</v>
+        <v>0.6335552018935728</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6572268927118184</v>
+        <v>0.6572087143094787</v>
       </c>
     </row>
     <row r="21">
@@ -5326,19 +5326,19 @@
         <v>207080</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>181297</v>
+        <v>179492</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>242009</v>
+        <v>237743</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.05879632095483153</v>
+        <v>0.05879632095483152</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.05147590474289751</v>
+        <v>0.05096337191556996</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.06871395380824424</v>
+        <v>0.06750251720651521</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>332</v>
@@ -5347,19 +5347,19 @@
         <v>228289</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>204343</v>
+        <v>205398</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>255991</v>
+        <v>254862</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.0612421484989019</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.05481839067662377</v>
+        <v>0.05510120665137194</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.0686737407626877</v>
+        <v>0.06837085943372589</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>556</v>
@@ -5368,19 +5368,19 @@
         <v>435368</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>395667</v>
+        <v>398860</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>476106</v>
+        <v>474772</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.06005392701313575</v>
+        <v>0.06005392701313574</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.05457759291191023</v>
+        <v>0.05501806435664433</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.06567318986715388</v>
+        <v>0.06548915967923617</v>
       </c>
     </row>
     <row r="22">
@@ -5397,19 +5397,19 @@
         <v>628191</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>576266</v>
+        <v>577731</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>682656</v>
+        <v>685285</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1783629462472751</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1636197280196531</v>
+        <v>0.1640358007449525</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.193827420088655</v>
+        <v>0.1945736950907113</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>862</v>
@@ -5418,19 +5418,19 @@
         <v>620026</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>579523</v>
+        <v>579399</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>663790</v>
+        <v>661589</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1663318639334835</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1554664413896637</v>
+        <v>0.1554331194457271</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1780722872836013</v>
+        <v>0.1774817292735832</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1435</v>
@@ -5439,19 +5439,19 @@
         <v>1248217</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1185079</v>
+        <v>1181647</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1323363</v>
+        <v>1316753</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1721767529310444</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1634675967132323</v>
+        <v>0.1629943084006734</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1825422725923883</v>
+        <v>0.1816304926372919</v>
       </c>
     </row>
     <row r="23">
@@ -5468,19 +5468,19 @@
         <v>434277</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>392931</v>
+        <v>390380</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>484387</v>
+        <v>478987</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1233048376248494</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1115654676099222</v>
+        <v>0.1108409782948853</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1375324888667868</v>
+        <v>0.1359993340278883</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>612</v>
@@ -5489,19 +5489,19 @@
         <v>456129</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>421460</v>
+        <v>422043</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>492854</v>
+        <v>495510</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.1223639378106835</v>
+        <v>0.1223639378106836</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1130635060993891</v>
+        <v>0.1132197684233264</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1322159657464407</v>
+        <v>0.1329285740516338</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>981</v>
@@ -5510,19 +5510,19 @@
         <v>890406</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>830412</v>
+        <v>842087</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>949941</v>
+        <v>954781</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1228210417376778</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1145455784889667</v>
+        <v>0.1161558971256658</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1310330881299298</v>
+        <v>0.1317008111128416</v>
       </c>
     </row>
     <row r="24">
